--- a/biology/Histoire de la zoologie et de la botanique/Jean_Delphy/Jean_Delphy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Delphy/Jean_Delphy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Delphy (Noisy-le-Sec, 29 janvier 1887 - Mugron, 14 juillet 1961) est un zoologiste, entomologiste, spécialiste de la faune marine française et anarchiste individualiste.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de paysans catalans, originaire de Latour-de-France son père, chef de brigade ambulant des postes, émigré à Paris, a quitté tôt (avant 1900) le foyer familial. Néanmoins, le jeune Jean Delphy, troisième enfant d'une famille de cinq, poursuivra des études secondaires et universitaires. Pour vivre, il passe le brevet de capacité pour l'enseignement primaire (1906) qui lui permet d'être instituteur.
 Il poursuit cependant des études supérieures. Licencié ès sciences (1908), il est boursier de doctorat du Muséum national d'histoire naturelle (1912-1914) et brièvement professeur au collège Fesch d'Ajaccio en 1913. Le 6 avril 1914, il épouse à Valognes (Manche) Germaine Lesauvage, une institutrice qui le stimulera dans ses recherches, et le 18 avril 1914, il obtient le poste de Chef des travaux pratiques du laboratoire maritime de Tatihou (à Saint-Vaast-la-Hougue), dépendant du Muséum. Il sera, un peu plus tard, directeur de ce laboratoire (de 1915 à 1924). Élu membre de la Société zoologique de France, le 14 mars 1916, il y publiera dès lors de nombreuses contributions.
@@ -550,26 +564,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La Faune de France en tableaux synoptiques illustrés
-Cette œuvre maîtresse, dont Rémy Perrier est le Directeur de publication, comprend 11 volumes qui paraissent sans ordres déterminés à partir de 1924, à Paris chez l'éditeur Delagrave. Jean Delphy est l'auteur, ou participe activement, à quatre d'entre eux y compris au niveau des illustrations :
+          <t>La Faune de France en tableaux synoptiques illustrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette œuvre maîtresse, dont Rémy Perrier est le Directeur de publication, comprend 11 volumes qui paraissent sans ordres déterminés à partir de 1924, à Paris chez l'éditeur Delagrave. Jean Delphy est l'auteur, ou participe activement, à quatre d'entre eux y compris au niveau des illustrations :
 Tome 1a Cœlentérés, spongiaires, échinodermes - Rémy Perrier, en collaboration avec Jean Delphy et Protozoaires -  auteur Jean Delphy.
 Tome 1b Vers et némathelminthes - auteur Jean Delphy.
 Tome 5 Coléoptères (1re partie) - la seconde édition est entièrement revue et corrigée par Jean Delphy.
 Tome 6 Coléoptères (2e partie) - auteur Jean Delphy.
 L'ouvrage fut couronné par l'Académie des Sciences (Prix Thore 1926) et par la société Entomologique de France (Prix Dollfus 1930). Il fera l'objet de rééditions successives à Paris, en 1954 et 1964 chez le même éditeur.
-Kropotkine
-Fernand Planche, Jean Delphy, Kropotkine, SLIM, 1948 (réédité en 2006, Tops-H, Trinquier).
-Publications scientifiques
-Jean Delphy, Etudes[1] sur l'organisation et le développement des Lombriciens limicoles thalassophiles. Valognes, Pillu-Roland , 1921. [Lire en ligne (Internet Archive)]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux travaux de Jean Delphy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kropotkine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fernand Planche, Jean Delphy, Kropotkine, SLIM, 1948 (réédité en 2006, Tops-H, Trinquier).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux travaux de Jean Delphy</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean Delphy, Etudes sur l'organisation et le développement des Lombriciens limicoles thalassophiles. Valognes, Pillu-Roland , 1921. [Lire en ligne (Internet Archive)]
 Jean Delphy, Notice sur les travaux scientifiques de Jean Delphy. Rennes, L'imprimerie bretonne, 1938. [Lire en ligne (Internet Archive)]
 Participation à des revues scientifiques entre autres :
 Bulletin de la société zoologique de France (à partir de 1917).
 Atrophie de la nageoire ventrale du Chabot (1917). [Lire en ligne (Internet Archive)]
 Bulletin du Muséum national d'histoire naturelle (à partir de 1916).
 L'Année Biologique (à partir de 1916)
-Association française pour l'avancement des sciences (1921)
-Publications philosophiques et politiques
-Revue générale des sciences pures et appliquées (à partir de 1920).
+Association française pour l'avancement des sciences (1921)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Delphy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principaux travaux de Jean Delphy</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications philosophiques et politiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Revue générale des sciences pures et appliquées (à partir de 1920).
 La Lutte et L'entr'aide (1946, n°10 p. 198-200 et n°11 p. 227-229). [Lire en ligne (Internet Archive)]</t>
         </is>
       </c>
